--- a/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98063311-07FB-4C79-848A-EE37BEAAD125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90021967-4A57-40D8-9349-AF111FF14F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
   <si>
     <t>作成者</t>
   </si>
@@ -145,13 +145,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル（ページ内）</t>
-    <rPh sb="0" eb="1">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -253,20 +246,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログアウト」ボタンが表示されていないこと</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>トップ画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>山崎</t>
     <rPh sb="0" eb="2">
       <t>ヤマサキ</t>
@@ -296,20 +275,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「トップ」と表示されていること</t>
-    <rPh sb="0" eb="1">
-      <t>ショセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「トップ画面」と表示されていること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「文具/雑貨販売フロント」と表示されていること</t>
     <rPh sb="1" eb="3">
       <t>ブング</t>
@@ -564,25 +529,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ショッピングカートのアイコン(商品購入(入力)画面へのリンク)が表示されていること</t>
-    <rPh sb="15" eb="17">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウニュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品検索画面」へ遷移</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンケンサク</t>
@@ -596,26 +542,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品画像を押下</t>
-    <rPh sb="0" eb="4">
-      <t>ショウヒンガゾウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「商品詳細画面」へ遷移</t>
-    <rPh sb="1" eb="7">
-      <t>ショウヒンショウサイガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン前メニュー画面」へ遷移</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -639,55 +565,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3枚の写真のカルーセルが表示されていること</t>
-    <rPh sb="1" eb="2">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品の一覧（画像、名前、値段）が表示されていること</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ネダン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログイン」リンクが表示されていない</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「ログアウト」ボタンが表示されていること</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン後トップ画面」へ遷移</t>
     <rPh sb="5" eb="6">
       <t>ゴ</t>
@@ -746,19 +623,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3枚の写真からなるカルーセルが表示されていること</t>
-    <rPh sb="1" eb="2">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「顧客ログイン画面」へ遷移</t>
     <rPh sb="1" eb="3">
       <t>コキャク</t>
@@ -787,6 +651,110 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品詳細画面</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「商品詳細画面」と表示されていること</t>
+    <rPh sb="1" eb="5">
+      <t>ショウヒンショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名が表示されていること</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品の画像が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単価が表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>数量のプルダウンが表示されていること</t>
+    <rPh sb="0" eb="2">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カートに入れる」ボタンが表示されていること</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト(顧客名)」リンクがが表示されていないこと</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「カートに入れる」を押下</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト(顧客名)」リンクがが表示されていること</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」リンクが表示されていないこと</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1094,7 +1062,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,6 +1118,60 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1157,13 +1179,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1171,6 +1193,24 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,75 +1246,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1626,10 +1597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57:G68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1647,56 +1618,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1709,50 +1680,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" ht="33.5" customHeight="1">
+      <c r="A4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
-    </row>
-    <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1761,20 +1732,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="24" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1784,270 +1755,266 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="18"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="18"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
       <c r="M8" s="18"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="20"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
       <c r="M10" s="18"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="20"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="12" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
       <c r="M11" s="18"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="20"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="38"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="38"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
       <c r="M13" s="18"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
       <c r="M14" s="18"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
       <c r="M15" s="18"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="38"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
       <c r="M16" s="18"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2059,18 +2026,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
       <c r="M17" s="18"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2082,18 +2049,20 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="C18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="18"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2105,18 +2074,18 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="18"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2128,18 +2097,18 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="18"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2151,18 +2120,18 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="18"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2174,18 +2143,18 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="18"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -2197,18 +2166,18 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -2220,18 +2189,18 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -2243,18 +2212,18 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="18"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -2266,18 +2235,18 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="18"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -2289,18 +2258,18 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="18"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -2311,148 +2280,144 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
       <c r="M28" s="18"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
       <c r="M29" s="18"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
+      <c r="B30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
       <c r="M30" s="18"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
       <c r="M31" s="18"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="15"/>
+      <c r="P31" s="24"/>
+      <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
       <c r="M32" s="18"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="15"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -2463,21 +2428,21 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
       <c r="M34" s="18"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -2488,21 +2453,21 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
       <c r="M35" s="18"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -2513,21 +2478,21 @@
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="46"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -2538,21 +2503,21 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
       <c r="M37" s="18"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -2563,21 +2528,21 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
       <c r="M38" s="18"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2588,21 +2553,21 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
       <c r="M39" s="18"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -2613,21 +2578,21 @@
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
       <c r="M40" s="18"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -2638,21 +2603,21 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="18"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -2663,413 +2628,413 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="46"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
       <c r="M42" s="18"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="44" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A44" s="38" t="s">
+    <row r="43" spans="1:17" ht="12" customHeight="1">
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="15"/>
+    </row>
+    <row r="44" spans="1:17" ht="12" customHeight="1">
+      <c r="A44" s="6">
+        <v>39</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="15"/>
+    </row>
+    <row r="46" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A46" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="48"/>
+    </row>
+    <row r="47" spans="1:17" ht="40" customHeight="1">
+      <c r="A47" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="42"/>
-    </row>
-    <row r="45" spans="1:17" ht="40" customHeight="1">
-      <c r="A45" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="42"/>
-    </row>
-    <row r="46" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A46" s="13" t="s">
+      <c r="B47" s="46"/>
+      <c r="C47" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="48"/>
+    </row>
+    <row r="48" spans="1:17" ht="11.25" customHeight="1">
+      <c r="A48" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C48" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="24" t="s">
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="16" t="s">
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N46" s="13" t="s">
+      <c r="N48" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O46" s="13" t="s">
+      <c r="O48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P46" s="24" t="s">
+      <c r="P48" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="43"/>
-    </row>
-    <row r="47" spans="1:17" ht="12" customHeight="1">
-      <c r="A47" s="6">
-        <v>1</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-    </row>
-    <row r="48" spans="1:17" ht="12" customHeight="1">
-      <c r="A48" s="6">
-        <v>2</v>
-      </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
+      <c r="Q48" s="44"/>
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1">
       <c r="A49" s="6">
-        <v>3</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
       <c r="M49" s="18"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="20"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1">
       <c r="A50" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23"/>
+      <c r="C50" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
       <c r="M50" s="18"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="20"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="38"/>
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1">
       <c r="A51" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="23"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="20"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="38"/>
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1">
       <c r="A52" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
       <c r="M52" s="18"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="19"/>
-      <c r="Q52" s="20"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="38"/>
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1">
       <c r="A53" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="23"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27"/>
       <c r="M53" s="18"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="19"/>
-      <c r="Q53" s="20"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="15"/>
     </row>
     <row r="54" spans="1:17" ht="12" customHeight="1">
       <c r="A54" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="23"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
       <c r="M54" s="18"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="19"/>
-      <c r="Q54" s="20"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="38"/>
     </row>
     <row r="55" spans="1:17" ht="12" customHeight="1">
       <c r="A55" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23"/>
+      <c r="C55" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
       <c r="M55" s="18"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="15"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="38"/>
     </row>
     <row r="56" spans="1:17" ht="12" customHeight="1">
       <c r="A56" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="27"/>
       <c r="M56" s="18"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="15"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="38"/>
     </row>
     <row r="57" spans="1:17" ht="12" customHeight="1">
       <c r="A57" s="6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="23"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="27"/>
       <c r="M57" s="18"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="15"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="38"/>
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1">
       <c r="A58" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="23"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27"/>
       <c r="M58" s="18"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="15"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="38"/>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1">
       <c r="A59" s="6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="23"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="27"/>
       <c r="M59" s="18"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -3078,21 +3043,21 @@
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1">
       <c r="A60" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="23"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
       <c r="M60" s="18"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -3101,21 +3066,23 @@
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1">
       <c r="A61" s="6">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23"/>
+      <c r="C61" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
       <c r="M61" s="18"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -3124,21 +3091,21 @@
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1">
       <c r="A62" s="6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="23"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
       <c r="M62" s="18"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -3147,21 +3114,21 @@
     </row>
     <row r="63" spans="1:17" ht="12" customHeight="1">
       <c r="A63" s="6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27"/>
       <c r="M63" s="18"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -3170,21 +3137,21 @@
     </row>
     <row r="64" spans="1:17" ht="12" customHeight="1">
       <c r="A64" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="23"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="27"/>
       <c r="M64" s="18"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -3193,21 +3160,21 @@
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1">
       <c r="A65" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="23"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
       <c r="M65" s="18"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -3216,21 +3183,21 @@
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1">
       <c r="A66" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="23"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="27"/>
       <c r="M66" s="18"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -3239,21 +3206,21 @@
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
       <c r="A67" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="23"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
       <c r="M67" s="18"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -3262,21 +3229,21 @@
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
       <c r="A68" s="6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
       <c r="M68" s="18"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -3285,75 +3252,67 @@
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
       <c r="A69" s="6">
-        <v>23</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="46"/>
+        <v>21</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27"/>
       <c r="M69" s="18"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
-      <c r="P69" s="46"/>
-      <c r="Q69" s="46"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="15"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1">
       <c r="A70" s="6">
-        <v>24</v>
-      </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="46"/>
+        <v>22</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27"/>
       <c r="M70" s="18"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
-      <c r="P70" s="46"/>
-      <c r="Q70" s="46"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="15"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1">
       <c r="A71" s="6">
-        <v>25</v>
-      </c>
-      <c r="B71" s="45"/>
-      <c r="C71" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-      <c r="L71" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
       <c r="M71" s="18"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -3362,23 +3321,21 @@
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1">
       <c r="A72" s="6">
-        <v>26</v>
-      </c>
-      <c r="B72" s="45"/>
-      <c r="C72" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
       <c r="M72" s="18"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -3387,98 +3344,100 @@
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1">
       <c r="A73" s="6">
-        <v>27</v>
-      </c>
-      <c r="B73" s="45"/>
-      <c r="C73" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="46"/>
+      <c r="B73" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
       <c r="M73" s="18"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="15"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="24"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1">
       <c r="A74" s="6">
-        <v>28</v>
-      </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="46"/>
+        <v>23</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
       <c r="M74" s="18"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="15"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1">
       <c r="A75" s="6">
-        <v>29</v>
-      </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
+        <v>24</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
       <c r="M75" s="18"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="15"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1">
       <c r="A76" s="6">
-        <v>30</v>
-      </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
       <c r="M76" s="18"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -3487,23 +3446,23 @@
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1">
       <c r="A77" s="6">
-        <v>31</v>
-      </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="46" t="s">
-        <v>78</v>
-      </c>
-      <c r="I77" s="46"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
+        <v>26</v>
+      </c>
+      <c r="B77" s="22"/>
+      <c r="C77" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
       <c r="M77" s="18"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -3512,23 +3471,23 @@
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1">
       <c r="A78" s="6">
-        <v>32</v>
-      </c>
-      <c r="B78" s="45"/>
-      <c r="C78" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="I78" s="46"/>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
+        <v>27</v>
+      </c>
+      <c r="B78" s="22"/>
+      <c r="C78" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
       <c r="M78" s="18"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -3537,23 +3496,23 @@
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1">
       <c r="A79" s="6">
-        <v>33</v>
-      </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I79" s="59"/>
-      <c r="J79" s="59"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="60"/>
+        <v>28</v>
+      </c>
+      <c r="B79" s="22"/>
+      <c r="C79" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
       <c r="M79" s="18"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -3562,23 +3521,23 @@
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1">
       <c r="A80" s="6">
-        <v>34</v>
-      </c>
-      <c r="B80" s="45"/>
-      <c r="C80" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I80" s="46"/>
-      <c r="J80" s="46"/>
-      <c r="K80" s="46"/>
-      <c r="L80" s="46"/>
+        <v>29</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="27"/>
       <c r="M80" s="18"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -3587,23 +3546,23 @@
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1">
       <c r="A81" s="6">
-        <v>35</v>
-      </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I81" s="46"/>
-      <c r="J81" s="46"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="46"/>
+        <v>30</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
       <c r="M81" s="18"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -3612,23 +3571,23 @@
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1">
       <c r="A82" s="6">
-        <v>36</v>
-      </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I82" s="46"/>
-      <c r="J82" s="46"/>
-      <c r="K82" s="46"/>
-      <c r="L82" s="46"/>
+        <v>31</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
       <c r="M82" s="18"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -3637,71 +3596,258 @@
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1">
       <c r="A83" s="6">
-        <v>37</v>
-      </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="I83" s="46"/>
-      <c r="J83" s="46"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="46"/>
+        <v>32</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="41"/>
       <c r="M83" s="18"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="14"/>
       <c r="Q83" s="15"/>
     </row>
+    <row r="84" spans="1:17" ht="12" customHeight="1">
+      <c r="A84" s="6">
+        <v>33</v>
+      </c>
+      <c r="B84" s="22"/>
+      <c r="C84" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="26"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="15"/>
+    </row>
+    <row r="85" spans="1:17" ht="12" customHeight="1">
+      <c r="A85" s="6">
+        <v>34</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="15"/>
+    </row>
+    <row r="86" spans="1:17" ht="12" customHeight="1">
+      <c r="A86" s="6">
+        <v>35</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="15"/>
+    </row>
+    <row r="87" spans="1:17" ht="12" customHeight="1">
+      <c r="A87" s="6">
+        <v>36</v>
+      </c>
+      <c r="B87" s="23"/>
+      <c r="C87" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="15"/>
+    </row>
   </sheetData>
-  <mergeCells count="157">
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="B69:B83"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:L78"/>
+  <mergeCells count="161">
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:Q46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:Q47"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C7:G11"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C48:G48"/>
     <mergeCell ref="C79:G79"/>
     <mergeCell ref="H79:L79"/>
     <mergeCell ref="C80:G80"/>
     <mergeCell ref="H80:L80"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
     <mergeCell ref="H72:L72"/>
     <mergeCell ref="C73:G73"/>
     <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C49:G50"/>
-    <mergeCell ref="C51:G56"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="C57:G68"/>
-    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B30:B44"/>
+    <mergeCell ref="C50:G54"/>
+    <mergeCell ref="C55:G60"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C61:G72"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="P54:Q54"/>
     <mergeCell ref="H58:L58"/>
     <mergeCell ref="H59:L59"/>
     <mergeCell ref="H60:L60"/>
@@ -3712,113 +3858,30 @@
     <mergeCell ref="H65:L65"/>
     <mergeCell ref="H66:L66"/>
     <mergeCell ref="H67:L67"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="C16:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C10:G15"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:Q44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:Q45"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="B73:B87"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90021967-4A57-40D8-9349-AF111FF14F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DFAB2F-05D8-46A7-9052-D3BFA1251682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="87">
   <si>
     <t>作成者</t>
   </si>
@@ -755,6 +755,75 @@
     <t>「ログイン」リンクが表示されていないこと</t>
     <rPh sb="10" eb="12">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「購入（入力）」画面に遷移</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクがない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログアウト」を押下</t>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「顧客ログイン画面」へ遷移</t>
+    <rPh sb="1" eb="3">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能が実装されていない</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確認できなかった</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1124,6 +1193,111 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1133,51 +1307,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1186,66 +1315,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1597,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:G49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1618,25 +1687,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,23 +1720,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1680,50 +1749,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1767,117 +1836,127 @@
       <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="18"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="25" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="18"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="O7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="25" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="18"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+      <c r="O8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="46"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="18"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="38"/>
+      <c r="O9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="46"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="18"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15"/>
     </row>
@@ -1886,138 +1965,150 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="18"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="38"/>
+      <c r="O11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="25" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="18"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="38"/>
+      <c r="O12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="46"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="18"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="O13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="46"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="25" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="18"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="O14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="46"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="25" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="18"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="38"/>
+      <c r="O15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="18"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="15"/>
     </row>
@@ -2026,21 +2117,23 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="18"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P17" s="14"/>
       <c r="Q17" s="15"/>
     </row>
@@ -2049,23 +2142,25 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="25" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="18"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P18" s="14"/>
       <c r="Q18" s="15"/>
     </row>
@@ -2074,21 +2169,23 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="25" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="18"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="O19" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="15"/>
     </row>
@@ -2097,21 +2194,23 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="25" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="18"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P20" s="14"/>
       <c r="Q20" s="15"/>
     </row>
@@ -2120,21 +2219,23 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="25" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="18"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P21" s="14"/>
       <c r="Q21" s="15"/>
     </row>
@@ -2143,21 +2244,23 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="25" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="18"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P22" s="14"/>
       <c r="Q22" s="15"/>
     </row>
@@ -2166,21 +2269,23 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="25" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="18"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P23" s="14"/>
       <c r="Q23" s="15"/>
     </row>
@@ -2189,21 +2294,23 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="25" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="18"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P24" s="14"/>
       <c r="Q24" s="15"/>
     </row>
@@ -2212,21 +2319,23 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="25" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="18"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="15"/>
     </row>
@@ -2235,21 +2344,23 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="25" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="18"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="15"/>
     </row>
@@ -2258,21 +2369,23 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="25" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="18"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="15"/>
     </row>
@@ -2281,21 +2394,23 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="25" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="18"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="15"/>
     </row>
@@ -2304,21 +2419,23 @@
         <v>24</v>
       </c>
       <c r="B29" s="20"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="25" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="18"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="15"/>
     </row>
@@ -2326,101 +2443,109 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
       <c r="M30" s="18"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
+      <c r="O30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="25" t="s">
+      <c r="B31" s="57"/>
+      <c r="C31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="24" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
       <c r="M31" s="18"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
+      <c r="O31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="25" t="s">
+      <c r="B32" s="57"/>
+      <c r="C32" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="24" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
       <c r="M32" s="18"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
+      <c r="O32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="57"/>
+      <c r="C33" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
       <c r="M33" s="18"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="15"/>
     </row>
@@ -2428,24 +2553,26 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="25" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="25" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="27"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="18"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="15"/>
     </row>
@@ -2453,24 +2580,26 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="22"/>
-      <c r="C35" s="25" t="s">
+      <c r="B35" s="57"/>
+      <c r="C35" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="24" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
       <c r="M35" s="18"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="15"/>
     </row>
@@ -2478,24 +2607,26 @@
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="25" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="24" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
       <c r="M36" s="18"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="15"/>
     </row>
@@ -2503,24 +2634,26 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="25" t="s">
+      <c r="B37" s="57"/>
+      <c r="C37" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="25" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
       <c r="M37" s="18"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="15"/>
     </row>
@@ -2528,24 +2661,26 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="25" t="s">
+      <c r="B38" s="57"/>
+      <c r="C38" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="24" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
       <c r="M38" s="18"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="O38" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="15"/>
     </row>
@@ -2553,24 +2688,26 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="57"/>
+      <c r="C39" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="24" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
       <c r="M39" s="18"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="15"/>
     </row>
@@ -2578,24 +2715,26 @@
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="25" t="s">
+      <c r="B40" s="57"/>
+      <c r="C40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="24" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
       <c r="M40" s="18"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="15"/>
     </row>
@@ -2603,24 +2742,26 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="25" t="s">
+      <c r="B41" s="57"/>
+      <c r="C41" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="24" t="s">
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
       <c r="M41" s="18"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="15"/>
     </row>
@@ -2628,24 +2769,26 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="57"/>
+      <c r="C42" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="24" t="s">
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
       <c r="M42" s="18"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
     </row>
@@ -2653,24 +2796,26 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="25" t="s">
+      <c r="B43" s="57"/>
+      <c r="C43" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="24" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
       <c r="M43" s="18"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="O43" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="15"/>
     </row>
@@ -2678,72 +2823,74 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="58"/>
+      <c r="C44" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="24" t="s">
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
       <c r="M44" s="18"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
     </row>
     <row r="46" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="47"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="47"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="48"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="1:17" ht="40" customHeight="1">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="49" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="47"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="48"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" customHeight="1">
       <c r="A48" s="13" t="s">
@@ -2787,117 +2934,127 @@
       <c r="B49" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24" t="s">
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
       <c r="M49" s="18"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
+      <c r="O49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1">
       <c r="A50" s="6">
         <v>2</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="25" t="s">
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
       <c r="M50" s="18"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="38"/>
+      <c r="O50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="46"/>
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1">
       <c r="A51" s="6">
         <v>3</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="25" t="s">
+      <c r="C51" s="50"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
       <c r="M51" s="18"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="38"/>
+      <c r="O51" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="46"/>
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1">
       <c r="A52" s="6">
         <v>4</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="25" t="s">
+      <c r="C52" s="50"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
       <c r="M52" s="18"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="38"/>
+      <c r="O52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="46"/>
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1">
       <c r="A53" s="6">
         <v>5</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="25" t="s">
+      <c r="C53" s="50"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="27"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
       <c r="M53" s="18"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P53" s="14"/>
       <c r="Q53" s="15"/>
     </row>
@@ -2906,138 +3063,150 @@
         <v>6</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="25" t="s">
+      <c r="C54" s="53"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="27"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
       <c r="M54" s="18"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="37"/>
-      <c r="Q54" s="38"/>
+      <c r="O54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="46"/>
     </row>
     <row r="55" spans="1:17" ht="12" customHeight="1">
       <c r="A55" s="6">
         <v>7</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="25" t="s">
+      <c r="D55" s="48"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="27"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
       <c r="M55" s="18"/>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="37"/>
-      <c r="Q55" s="38"/>
+      <c r="O55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="46"/>
     </row>
     <row r="56" spans="1:17" ht="12" customHeight="1">
       <c r="A56" s="6">
         <v>8</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="25" t="s">
+      <c r="C56" s="50"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="27"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
       <c r="M56" s="18"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="37"/>
-      <c r="Q56" s="38"/>
+      <c r="O56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="46"/>
     </row>
     <row r="57" spans="1:17" ht="12" customHeight="1">
       <c r="A57" s="6">
         <v>9</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="25" t="s">
+      <c r="C57" s="50"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="27"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
       <c r="M57" s="18"/>
       <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="37"/>
-      <c r="Q57" s="38"/>
+      <c r="O57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="46"/>
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1">
       <c r="A58" s="6">
         <v>10</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="25" t="s">
+      <c r="C58" s="50"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="27"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
       <c r="M58" s="18"/>
       <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="38"/>
+      <c r="O58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="46"/>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1">
       <c r="A59" s="6">
         <v>11</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="25" t="s">
+      <c r="C59" s="50"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="27"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
       <c r="M59" s="18"/>
       <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P59" s="14"/>
       <c r="Q59" s="15"/>
     </row>
@@ -3046,21 +3215,23 @@
         <v>12</v>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="25" t="s">
+      <c r="C60" s="53"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="55"/>
+      <c r="H60" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="23"/>
       <c r="M60" s="18"/>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P60" s="14"/>
       <c r="Q60" s="15"/>
     </row>
@@ -3069,23 +3240,25 @@
         <v>13</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="25" t="s">
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="27"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
       <c r="M61" s="18"/>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P61" s="14"/>
       <c r="Q61" s="15"/>
     </row>
@@ -3094,21 +3267,23 @@
         <v>14</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="25" t="s">
+      <c r="C62" s="50"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="27"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
       <c r="M62" s="18"/>
       <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="O62" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P62" s="14"/>
       <c r="Q62" s="15"/>
     </row>
@@ -3117,21 +3292,23 @@
         <v>15</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="25" t="s">
+      <c r="C63" s="50"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="27"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
       <c r="M63" s="18"/>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P63" s="14"/>
       <c r="Q63" s="15"/>
     </row>
@@ -3140,21 +3317,23 @@
         <v>16</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="25" t="s">
+      <c r="C64" s="50"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="27"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
       <c r="M64" s="18"/>
       <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="O64" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P64" s="14"/>
       <c r="Q64" s="15"/>
     </row>
@@ -3163,21 +3342,23 @@
         <v>17</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="25" t="s">
+      <c r="C65" s="50"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="27"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="23"/>
       <c r="M65" s="18"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="O65" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P65" s="14"/>
       <c r="Q65" s="15"/>
     </row>
@@ -3186,21 +3367,23 @@
         <v>18</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="25" t="s">
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="27"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="23"/>
       <c r="M66" s="18"/>
       <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+      <c r="O66" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P66" s="14"/>
       <c r="Q66" s="15"/>
     </row>
@@ -3209,21 +3392,23 @@
         <v>19</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="25" t="s">
+      <c r="C67" s="50"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="27"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="23"/>
       <c r="M67" s="18"/>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P67" s="14"/>
       <c r="Q67" s="15"/>
     </row>
@@ -3232,21 +3417,23 @@
         <v>20</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="25" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="27"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="23"/>
       <c r="M68" s="18"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P68" s="14"/>
       <c r="Q68" s="15"/>
     </row>
@@ -3255,21 +3442,23 @@
         <v>21</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="25" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="27"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="23"/>
       <c r="M69" s="18"/>
       <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+      <c r="O69" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P69" s="14"/>
       <c r="Q69" s="15"/>
     </row>
@@ -3278,21 +3467,23 @@
         <v>22</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="25" t="s">
+      <c r="C70" s="50"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="27"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="23"/>
       <c r="M70" s="18"/>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="O70" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P70" s="14"/>
       <c r="Q70" s="15"/>
     </row>
@@ -3301,21 +3492,23 @@
         <v>23</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="25" t="s">
+      <c r="C71" s="50"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="27"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
       <c r="M71" s="18"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P71" s="14"/>
       <c r="Q71" s="15"/>
     </row>
@@ -3324,21 +3517,23 @@
         <v>24</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="34"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="25" t="s">
+      <c r="C72" s="53"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="55"/>
+      <c r="H72" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="27"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="23"/>
       <c r="M72" s="18"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+      <c r="O72" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P72" s="14"/>
       <c r="Q72" s="15"/>
     </row>
@@ -3346,101 +3541,109 @@
       <c r="A73" s="6">
         <v>25</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="24" t="s">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
       <c r="M73" s="18"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="24"/>
+      <c r="O73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1">
       <c r="A74" s="6">
         <v>23</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="25" t="s">
+      <c r="B74" s="57"/>
+      <c r="C74" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="24" t="s">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
       <c r="M74" s="18"/>
       <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
+      <c r="O74" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1">
       <c r="A75" s="6">
         <v>24</v>
       </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="25" t="s">
+      <c r="B75" s="57"/>
+      <c r="C75" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="24" t="s">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
       <c r="M75" s="18"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
+      <c r="O75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1">
       <c r="A76" s="6">
         <v>25</v>
       </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="25" t="s">
+      <c r="B76" s="57"/>
+      <c r="C76" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="24" t="s">
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
       <c r="M76" s="18"/>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P76" s="14"/>
       <c r="Q76" s="15"/>
     </row>
@@ -3448,74 +3651,84 @@
       <c r="A77" s="6">
         <v>26</v>
       </c>
-      <c r="B77" s="22"/>
-      <c r="C77" s="25" t="s">
+      <c r="B77" s="57"/>
+      <c r="C77" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="25" t="s">
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="23"/>
       <c r="M77" s="18"/>
       <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="14"/>
+      <c r="O77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P77" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="Q77" s="15"/>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1">
       <c r="A78" s="6">
         <v>27</v>
       </c>
-      <c r="B78" s="22"/>
-      <c r="C78" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
       <c r="M78" s="18"/>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="14"/>
+      <c r="O78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="Q78" s="15"/>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1">
       <c r="A79" s="6">
         <v>28</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="25" t="s">
+      <c r="B79" s="57"/>
+      <c r="C79" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="24" t="s">
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
       <c r="M79" s="18"/>
       <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="O79" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="15"/>
     </row>
@@ -3523,24 +3736,26 @@
       <c r="A80" s="6">
         <v>29</v>
       </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="25" t="s">
+      <c r="B80" s="57"/>
+      <c r="C80" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="25" t="s">
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="27"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="23"/>
       <c r="M80" s="18"/>
       <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="O80" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="15"/>
     </row>
@@ -3548,24 +3763,26 @@
       <c r="A81" s="6">
         <v>30</v>
       </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="25" t="s">
+      <c r="B81" s="57"/>
+      <c r="C81" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="24" t="s">
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
       <c r="M81" s="18"/>
       <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+      <c r="O81" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P81" s="14"/>
       <c r="Q81" s="15"/>
     </row>
@@ -3573,24 +3790,26 @@
       <c r="A82" s="6">
         <v>31</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="25" t="s">
+      <c r="B82" s="57"/>
+      <c r="C82" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="24" t="s">
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
       <c r="M82" s="18"/>
       <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
+      <c r="O82" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P82" s="14"/>
       <c r="Q82" s="15"/>
     </row>
@@ -3598,24 +3817,26 @@
       <c r="A83" s="6">
         <v>32</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="25" t="s">
+      <c r="B83" s="57"/>
+      <c r="C83" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
-      <c r="F83" s="26"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="39" t="s">
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="41"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="61"/>
       <c r="M83" s="18"/>
       <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+      <c r="O83" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="P83" s="14"/>
       <c r="Q83" s="15"/>
     </row>
@@ -3623,128 +3844,227 @@
       <c r="A84" s="6">
         <v>33</v>
       </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="25" t="s">
+      <c r="B84" s="57"/>
+      <c r="C84" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
-      <c r="F84" s="26"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="24" t="s">
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
       <c r="M84" s="18"/>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="14"/>
+      <c r="O84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="1:17" ht="12" customHeight="1">
       <c r="A85" s="6">
         <v>34</v>
       </c>
-      <c r="B85" s="22"/>
-      <c r="C85" s="25" t="s">
+      <c r="B85" s="57"/>
+      <c r="C85" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="24" t="s">
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
       <c r="M85" s="18"/>
       <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="14"/>
+      <c r="O85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P85" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="Q85" s="15"/>
     </row>
     <row r="86" spans="1:17" ht="12" customHeight="1">
       <c r="A86" s="6">
         <v>35</v>
       </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="25" t="s">
+      <c r="B86" s="57"/>
+      <c r="C86" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="24" t="s">
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
       <c r="M86" s="18"/>
       <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="14"/>
+      <c r="O86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P86" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="Q86" s="15"/>
     </row>
     <row r="87" spans="1:17" ht="12" customHeight="1">
       <c r="A87" s="6">
         <v>36</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="25" t="s">
+      <c r="B87" s="58"/>
+      <c r="C87" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="24" t="s">
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
       <c r="M87" s="18"/>
       <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="14"/>
+      <c r="O87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P87" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="Q87" s="15"/>
+    </row>
+    <row r="88" spans="1:17" ht="11.25" customHeight="1">
+      <c r="O88" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:Q46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:Q47"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B73:B87"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B30:B44"/>
+    <mergeCell ref="C50:G54"/>
+    <mergeCell ref="C55:G60"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C61:G72"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="H49:L49"/>
     <mergeCell ref="P49:Q49"/>
@@ -3769,34 +4089,16 @@
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:Q46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:Q47"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P32:Q32"/>
     <mergeCell ref="C33:G33"/>
     <mergeCell ref="C34:G34"/>
     <mergeCell ref="C35:G35"/>
@@ -3806,82 +4108,20 @@
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:L79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B30:B44"/>
-    <mergeCell ref="C50:G54"/>
-    <mergeCell ref="C55:G60"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C61:G72"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="B73:B87"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DFAB2F-05D8-46A7-9052-D3BFA1251682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF51976A-335D-411F-A8A0-15BEF8C1E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="88">
   <si>
     <t>作成者</t>
   </si>
@@ -821,9 +821,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確認できなかった</t>
+    <t>（修正済み）</t>
+    <rPh sb="1" eb="4">
+      <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
     <rPh sb="0" eb="2">
-      <t>カクニン</t>
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -898,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1125,13 +1135,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,15 +1203,24 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1202,6 +1230,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,83 +1332,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1668,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C48" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1687,25 +1715,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,23 +1748,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1749,50 +1777,50 @@
       <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="40"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="40"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1801,20 +1829,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="42" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="16" t="s">
         <v>13</v>
       </c>
@@ -1824,136 +1852,156 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="44"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="2"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="2"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="46"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="21" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="2"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="46"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="21" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="2"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="46"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="21" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="2"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N10" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O10" s="2" t="s">
         <v>78</v>
       </c>
@@ -1965,147 +2013,171 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="2"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N11" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="46"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="21" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="2"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="46"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="21" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="2"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N13" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="46"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="21" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="2"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N14" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="21" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="2"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N15" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="21" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="2"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N16" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O16" s="2" t="s">
         <v>78</v>
       </c>
@@ -2117,20 +2189,24 @@
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="21" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="2"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O17" s="2" t="s">
         <v>78</v>
       </c>
@@ -2142,22 +2218,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="21" t="s">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="2"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N18" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O18" s="2" t="s">
         <v>78</v>
       </c>
@@ -2169,20 +2249,24 @@
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="21" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="2"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N19" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O19" s="2" t="s">
         <v>78</v>
       </c>
@@ -2194,20 +2278,24 @@
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="21" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="2"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>78</v>
       </c>
@@ -2219,20 +2307,24 @@
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="21" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="2"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N21" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>78</v>
       </c>
@@ -2244,20 +2336,24 @@
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="21" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="2"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N22" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O22" s="2" t="s">
         <v>78</v>
       </c>
@@ -2269,20 +2365,24 @@
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="21" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="2"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N23" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O23" s="2" t="s">
         <v>78</v>
       </c>
@@ -2294,20 +2394,24 @@
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="21" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="2"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N24" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O24" s="2" t="s">
         <v>78</v>
       </c>
@@ -2319,20 +2423,24 @@
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="21" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="2"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N25" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O25" s="2" t="s">
         <v>78</v>
       </c>
@@ -2344,20 +2452,24 @@
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="21" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="2"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N26" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O26" s="2" t="s">
         <v>78</v>
       </c>
@@ -2369,20 +2481,24 @@
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="21" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="2"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N27" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O27" s="2" t="s">
         <v>78</v>
       </c>
@@ -2394,20 +2510,24 @@
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="21" t="s">
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="2"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N28" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2418,21 +2538,25 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="21" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="2"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N29" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O29" s="2" t="s">
         <v>78</v>
       </c>
@@ -2443,106 +2567,122 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="41" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="2"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N30" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
+        <v>78</v>
+      </c>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="57"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="41" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="2"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N31" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="21"/>
+      <c r="C32" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="41" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="2"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="21"/>
+      <c r="C33" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="41" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="2"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O33" s="2" t="s">
         <v>78</v>
       </c>
@@ -2553,23 +2693,27 @@
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="21" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="2"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N34" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O34" s="2" t="s">
         <v>80</v>
       </c>
@@ -2580,23 +2724,27 @@
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="21"/>
+      <c r="C35" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="41" t="s">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="2"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N35" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O35" s="2" t="s">
         <v>78</v>
       </c>
@@ -2607,23 +2755,27 @@
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="21"/>
+      <c r="C36" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="41" t="s">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="2"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N36" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O36" s="2" t="s">
         <v>78</v>
       </c>
@@ -2634,23 +2786,27 @@
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="21" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="2"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N37" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O37" s="2" t="s">
         <v>78</v>
       </c>
@@ -2661,23 +2817,27 @@
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="41" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="2"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N38" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O38" s="2" t="s">
         <v>78</v>
       </c>
@@ -2688,23 +2848,27 @@
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="41" t="s">
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="2"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N39" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O39" s="2" t="s">
         <v>78</v>
       </c>
@@ -2715,23 +2879,27 @@
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="21"/>
+      <c r="C40" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="41" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="2"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N40" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O40" s="2" t="s">
         <v>78</v>
       </c>
@@ -2742,25 +2910,29 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="57"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="41" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="2"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N41" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O41" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="15"/>
@@ -2769,25 +2941,29 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="21"/>
+      <c r="C42" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="41" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="2"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N42" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="15"/>
@@ -2796,25 +2972,29 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="41" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="2"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N43" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O43" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="15"/>
@@ -2823,74 +3003,81 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="41" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="2"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N44" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="15"/>
     </row>
+    <row r="45" spans="1:17" ht="11.25" customHeight="1">
+      <c r="M45" s="64"/>
+    </row>
     <row r="46" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="45"/>
+      <c r="C46" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="40"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="47"/>
     </row>
     <row r="47" spans="1:17" ht="40" customHeight="1">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38" t="s">
+      <c r="B47" s="45"/>
+      <c r="C47" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="39"/>
-      <c r="O47" s="39"/>
-      <c r="P47" s="39"/>
-      <c r="Q47" s="40"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="47"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" customHeight="1">
       <c r="A48" s="13" t="s">
@@ -2899,20 +3086,20 @@
       <c r="B48" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="42" t="s">
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
       <c r="M48" s="16" t="s">
         <v>13</v>
       </c>
@@ -2922,136 +3109,156 @@
       <c r="O48" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P48" s="42" t="s">
+      <c r="P48" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="44"/>
+      <c r="Q48" s="43"/>
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1">
       <c r="A49" s="6">
         <v>1</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41" t="s">
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="2"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N49" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="23"/>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1">
       <c r="A50" s="6">
         <v>2</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="21" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="2"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N50" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="46"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="40"/>
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1">
       <c r="A51" s="6">
         <v>3</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="21" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="2"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N51" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="46"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="40"/>
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1">
       <c r="A52" s="6">
         <v>4</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="21" t="s">
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="2"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N52" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="46"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="40"/>
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1">
       <c r="A53" s="6">
         <v>5</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="21" t="s">
+      <c r="C53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="2"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N53" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O53" s="2" t="s">
         <v>78</v>
       </c>
@@ -3063,147 +3270,171 @@
         <v>6</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="21" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="2"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N54" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="46"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="40"/>
     </row>
     <row r="55" spans="1:17" ht="12" customHeight="1">
       <c r="A55" s="6">
         <v>7</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="21" t="s">
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="2"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N55" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="46"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="40"/>
     </row>
     <row r="56" spans="1:17" ht="12" customHeight="1">
       <c r="A56" s="6">
         <v>8</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="21" t="s">
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="2"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N56" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="46"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="40"/>
     </row>
     <row r="57" spans="1:17" ht="12" customHeight="1">
       <c r="A57" s="6">
         <v>9</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="21" t="s">
+      <c r="C57" s="33"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="2"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N57" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P57" s="45"/>
-      <c r="Q57" s="46"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="40"/>
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1">
       <c r="A58" s="6">
         <v>10</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="21" t="s">
+      <c r="C58" s="33"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="2"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N58" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="46"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="40"/>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1">
       <c r="A59" s="6">
         <v>11</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="21" t="s">
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="2"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N59" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O59" s="2" t="s">
         <v>78</v>
       </c>
@@ -3215,20 +3446,24 @@
         <v>12</v>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="21" t="s">
+      <c r="C60" s="36"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="2"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N60" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O60" s="2" t="s">
         <v>78</v>
       </c>
@@ -3240,22 +3475,26 @@
         <v>13</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="48"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="21" t="s">
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="2"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N61" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O61" s="2" t="s">
         <v>78</v>
       </c>
@@ -3267,20 +3506,24 @@
         <v>14</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="21" t="s">
+      <c r="C62" s="33"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="2"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N62" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O62" s="2" t="s">
         <v>78</v>
       </c>
@@ -3292,20 +3535,24 @@
         <v>15</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="21" t="s">
+      <c r="C63" s="33"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="2"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N63" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O63" s="2" t="s">
         <v>78</v>
       </c>
@@ -3317,20 +3564,24 @@
         <v>16</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="21" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="2"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N64" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O64" s="2" t="s">
         <v>78</v>
       </c>
@@ -3342,20 +3593,24 @@
         <v>17</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="21" t="s">
+      <c r="C65" s="33"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="2"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N65" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O65" s="2" t="s">
         <v>78</v>
       </c>
@@ -3367,20 +3622,24 @@
         <v>18</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="21" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="2"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N66" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O66" s="2" t="s">
         <v>78</v>
       </c>
@@ -3392,20 +3651,24 @@
         <v>19</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="21" t="s">
+      <c r="C67" s="33"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="2"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N67" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O67" s="2" t="s">
         <v>78</v>
       </c>
@@ -3417,20 +3680,24 @@
         <v>20</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="21" t="s">
+      <c r="C68" s="33"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="2"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N68" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O68" s="2" t="s">
         <v>78</v>
       </c>
@@ -3442,20 +3709,24 @@
         <v>21</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="21" t="s">
+      <c r="C69" s="33"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="2"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N69" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O69" s="2" t="s">
         <v>78</v>
       </c>
@@ -3467,20 +3738,24 @@
         <v>22</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="21" t="s">
+      <c r="C70" s="33"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="2"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N70" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O70" s="2" t="s">
         <v>78</v>
       </c>
@@ -3492,20 +3767,24 @@
         <v>23</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="21" t="s">
+      <c r="C71" s="33"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="2"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N71" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O71" s="2" t="s">
         <v>78</v>
       </c>
@@ -3516,21 +3795,25 @@
       <c r="A72" s="6">
         <v>24</v>
       </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="21" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="2"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N72" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O72" s="2" t="s">
         <v>78</v>
       </c>
@@ -3541,106 +3824,122 @@
       <c r="A73" s="6">
         <v>25</v>
       </c>
-      <c r="B73" s="56" t="s">
+      <c r="B73" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="41" t="s">
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="2"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N73" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P73" s="41"/>
-      <c r="Q73" s="41"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1">
       <c r="A74" s="6">
         <v>23</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="21"/>
+      <c r="C74" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="41" t="s">
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="2"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N74" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P74" s="41"/>
-      <c r="Q74" s="41"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="23"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1">
       <c r="A75" s="6">
         <v>24</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="21"/>
+      <c r="C75" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="41" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="2"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N75" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P75" s="41"/>
-      <c r="Q75" s="41"/>
+      <c r="P75" s="23"/>
+      <c r="Q75" s="23"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1">
       <c r="A76" s="6">
         <v>25</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="41" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="2"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N76" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O76" s="2" t="s">
         <v>78</v>
       </c>
@@ -3651,23 +3950,27 @@
       <c r="A77" s="6">
         <v>26</v>
       </c>
-      <c r="B77" s="57"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="21"/>
+      <c r="C77" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="21" t="s">
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="2"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N77" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O77" s="2" t="s">
         <v>79</v>
       </c>
@@ -3680,52 +3983,62 @@
       <c r="A78" s="6">
         <v>27</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="21"/>
+      <c r="C78" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="41" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="2"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N78" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P78" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="Q78" s="15"/>
+      <c r="Q78" s="15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1">
       <c r="A79" s="6">
         <v>28</v>
       </c>
-      <c r="B79" s="57"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="21"/>
+      <c r="C79" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="41" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="2"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N79" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O79" s="2" t="s">
         <v>78</v>
       </c>
@@ -3736,23 +4049,27 @@
       <c r="A80" s="6">
         <v>29</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="21"/>
+      <c r="C80" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="21" t="s">
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="2"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N80" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O80" s="2" t="s">
         <v>78</v>
       </c>
@@ -3763,23 +4080,27 @@
       <c r="A81" s="6">
         <v>30</v>
       </c>
-      <c r="B81" s="57"/>
-      <c r="C81" s="21" t="s">
+      <c r="B81" s="21"/>
+      <c r="C81" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="41" t="s">
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="2"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N81" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O81" s="2" t="s">
         <v>78</v>
       </c>
@@ -3790,23 +4111,27 @@
       <c r="A82" s="6">
         <v>31</v>
       </c>
-      <c r="B82" s="57"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="21"/>
+      <c r="C82" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="41" t="s">
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="2"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N82" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O82" s="2" t="s">
         <v>78</v>
       </c>
@@ -3817,23 +4142,27 @@
       <c r="A83" s="6">
         <v>32</v>
       </c>
-      <c r="B83" s="57"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="21"/>
+      <c r="C83" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="59" t="s">
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="I83" s="60"/>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="2"/>
+      <c r="I83" s="28"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N83" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O83" s="2" t="s">
         <v>78</v>
       </c>
@@ -3844,145 +4173,244 @@
       <c r="A84" s="6">
         <v>33</v>
       </c>
-      <c r="B84" s="57"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="21"/>
+      <c r="C84" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="41" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
+      <c r="H84" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="2"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N84" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O84" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P84" s="14" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P84" s="14"/>
       <c r="Q84" s="15"/>
     </row>
     <row r="85" spans="1:17" ht="12" customHeight="1">
       <c r="A85" s="6">
         <v>34</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="21"/>
+      <c r="C85" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="41" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="2"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N85" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O85" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P85" s="14" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P85" s="14"/>
       <c r="Q85" s="15"/>
     </row>
     <row r="86" spans="1:17" ht="12" customHeight="1">
       <c r="A86" s="6">
         <v>35</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="21"/>
+      <c r="C86" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="41" t="s">
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="26"/>
+      <c r="H86" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="2"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N86" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O86" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P86" s="14" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P86" s="14"/>
       <c r="Q86" s="15"/>
     </row>
     <row r="87" spans="1:17" ht="12" customHeight="1">
       <c r="A87" s="6">
         <v>36</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="22"/>
+      <c r="C87" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="41" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="26"/>
+      <c r="H87" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="2"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="64">
+        <v>45512</v>
+      </c>
+      <c r="N87" s="62" t="s">
+        <v>87</v>
+      </c>
       <c r="O87" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P87" s="14" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P87" s="14"/>
       <c r="Q87" s="15"/>
     </row>
     <row r="88" spans="1:17" ht="11.25" customHeight="1">
-      <c r="O88" s="2"/>
+      <c r="O88" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="B73:B87"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:Q46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:Q47"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C12:G17"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C7:G11"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C18:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="P30:Q30"/>
@@ -4007,121 +4435,30 @@
     <mergeCell ref="H67:L67"/>
     <mergeCell ref="H68:L68"/>
     <mergeCell ref="H69:L69"/>
+    <mergeCell ref="B73:B87"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
     <mergeCell ref="C79:G79"/>
     <mergeCell ref="H79:L79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C12:G17"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C7:G11"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C18:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:Q46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:Q47"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C5:G5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-FP007商品詳細画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF51976A-335D-411F-A8A0-15BEF8C1E319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51195BB0-618B-43A3-917F-6BE4F8EA3139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
   <si>
     <t>作成者</t>
   </si>
@@ -763,14 +763,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「購入（入力）」画面に遷移</t>
     <rPh sb="1" eb="3">
       <t>コウニュウ</t>
@@ -784,10 +776,6 @@
     <rPh sb="11" eb="13">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リンクがない</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1150,7 +1138,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1182,9 +1170,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,6 +1194,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1218,18 +1317,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1238,111 +1325,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1696,8 +1678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C48" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P87" sqref="P87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C68" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1708,32 +1690,32 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="47.90625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="16" customWidth="1"/>
     <col min="14" max="15" width="8.453125" style="4" customWidth="1"/>
     <col min="16" max="17" width="17.1796875" style="4" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1748,23 +1730,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="55" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="36"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1774,2560 +1756,2636 @@
       <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="19" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="41"/>
     </row>
     <row r="4" spans="1:17" ht="33.5" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="16" t="s">
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="24"/>
     </row>
     <row r="6" spans="1:17" ht="12" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N6" s="62" t="s">
-        <v>87</v>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
     </row>
     <row r="7" spans="1:17" ht="12" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="24" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>87</v>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="40"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="1:17" ht="12" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="24" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N8" s="62" t="s">
-        <v>87</v>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="12" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N9" s="62" t="s">
-        <v>87</v>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="1:17" ht="12" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N10" s="62" t="s">
-        <v>87</v>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
     </row>
     <row r="11" spans="1:17" ht="12" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N11" s="62" t="s">
-        <v>87</v>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="1:17" ht="12" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="24" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N12" s="62" t="s">
-        <v>87</v>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="40"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="1:17" ht="12" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N13" s="62" t="s">
-        <v>87</v>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="1:17" ht="12" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="24" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N14" s="62" t="s">
-        <v>87</v>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:17" ht="12" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N15" s="62" t="s">
-        <v>87</v>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="1:17" ht="12" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N16" s="62" t="s">
-        <v>87</v>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="15"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="14"/>
     </row>
     <row r="17" spans="1:17" ht="12" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="24" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N17" s="62" t="s">
-        <v>87</v>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N18" s="62" t="s">
-        <v>87</v>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="15"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17" ht="12" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="24" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N19" s="62" t="s">
-        <v>87</v>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="15"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:17" ht="12" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="24" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N20" s="62" t="s">
-        <v>87</v>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="15"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="24" t="s">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N21" s="62" t="s">
-        <v>87</v>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="15"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" ht="12" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="24" t="s">
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N22" s="62" t="s">
-        <v>87</v>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="15"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" ht="12" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="24" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N23" s="62" t="s">
-        <v>87</v>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="15"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="12" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="24" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N24" s="62" t="s">
-        <v>87</v>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="15"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="12" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="24" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N25" s="62" t="s">
-        <v>87</v>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="15"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" ht="12" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="24" t="s">
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N26" s="62" t="s">
-        <v>87</v>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" ht="12" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="24" t="s">
+      <c r="C27" s="51"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N27" s="62" t="s">
-        <v>87</v>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="15"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="12" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="24" t="s">
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N28" s="62" t="s">
-        <v>87</v>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="15"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" ht="12" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="24" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N29" s="62" t="s">
-        <v>87</v>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="15"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" ht="12" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N30" s="62" t="s">
-        <v>87</v>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N30" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
     </row>
     <row r="31" spans="1:17" ht="12" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="58"/>
+      <c r="C31" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="23" t="s">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N31" s="62" t="s">
-        <v>87</v>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N31" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
     </row>
     <row r="32" spans="1:17" ht="12" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="24" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="23" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N32" s="62" t="s">
-        <v>87</v>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
     </row>
     <row r="33" spans="1:17" ht="12" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="24" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N33" s="62" t="s">
-        <v>87</v>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:17" ht="12" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="58"/>
+      <c r="C34" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N34" s="62" t="s">
-        <v>87</v>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N34" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="1:17" ht="12" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="24" t="s">
+      <c r="B35" s="58"/>
+      <c r="C35" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="23" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N35" s="62" t="s">
-        <v>87</v>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="15"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" ht="12" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="24" t="s">
+      <c r="B36" s="58"/>
+      <c r="C36" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="23" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N36" s="62" t="s">
-        <v>87</v>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="15"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="14"/>
     </row>
     <row r="37" spans="1:17" ht="12" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="24" t="s">
+      <c r="B37" s="58"/>
+      <c r="C37" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N37" s="62" t="s">
-        <v>87</v>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N37" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="15"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="14"/>
     </row>
     <row r="38" spans="1:17" ht="12" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="24" t="s">
+      <c r="B38" s="58"/>
+      <c r="C38" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="23" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N38" s="62" t="s">
-        <v>87</v>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N38" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="15"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="14"/>
     </row>
     <row r="39" spans="1:17" ht="12" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="24" t="s">
+      <c r="B39" s="58"/>
+      <c r="C39" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="23" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N39" s="62" t="s">
-        <v>87</v>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="15"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="14"/>
     </row>
     <row r="40" spans="1:17" ht="12" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="24" t="s">
+      <c r="B40" s="58"/>
+      <c r="C40" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="23" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N40" s="62" t="s">
-        <v>87</v>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="15"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="14"/>
     </row>
     <row r="41" spans="1:17" ht="12" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="24" t="s">
+      <c r="B41" s="58"/>
+      <c r="C41" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="23" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N41" s="62" t="s">
-        <v>87</v>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="15"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="14"/>
     </row>
     <row r="42" spans="1:17" ht="12" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="24" t="s">
+      <c r="B42" s="58"/>
+      <c r="C42" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="23" t="s">
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N42" s="62" t="s">
-        <v>87</v>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N42" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="15"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="14"/>
     </row>
     <row r="43" spans="1:17" ht="12" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="24" t="s">
+      <c r="B43" s="58"/>
+      <c r="C43" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="23" t="s">
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N43" s="62" t="s">
-        <v>87</v>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N43" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="15"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="14"/>
     </row>
     <row r="44" spans="1:17" ht="12" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="24" t="s">
+      <c r="B44" s="59"/>
+      <c r="C44" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="23" t="s">
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N44" s="62" t="s">
-        <v>87</v>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N44" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="15"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="14"/>
     </row>
     <row r="45" spans="1:17" ht="11.25" customHeight="1">
-      <c r="M45" s="64"/>
+      <c r="M45" s="20"/>
     </row>
     <row r="46" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46" t="s">
+      <c r="B46" s="38"/>
+      <c r="C46" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="47"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="41"/>
     </row>
     <row r="47" spans="1:17" ht="40" customHeight="1">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B47" s="45"/>
-      <c r="C47" s="48" t="s">
+      <c r="B47" s="38"/>
+      <c r="C47" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="47"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="41"/>
     </row>
     <row r="48" spans="1:17" ht="11.25" customHeight="1">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="41" t="s">
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="16" t="s">
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="13" t="s">
+      <c r="N48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O48" s="13" t="s">
+      <c r="O48" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P48" s="41" t="s">
+      <c r="P48" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="43"/>
+      <c r="Q48" s="24"/>
     </row>
     <row r="49" spans="1:17" ht="12" customHeight="1">
       <c r="A49" s="6">
         <v>1</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N49" s="62" t="s">
-        <v>87</v>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N49" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
     </row>
     <row r="50" spans="1:17" ht="12" customHeight="1">
       <c r="A50" s="6">
         <v>2</v>
       </c>
       <c r="B50" s="7"/>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="24" t="s">
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N50" s="62" t="s">
-        <v>87</v>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N50" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P50" s="39"/>
-      <c r="Q50" s="40"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="47"/>
     </row>
     <row r="51" spans="1:17" ht="12" customHeight="1">
       <c r="A51" s="6">
         <v>3</v>
       </c>
       <c r="B51" s="7"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="24" t="s">
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N51" s="62" t="s">
-        <v>87</v>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N51" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P51" s="39"/>
-      <c r="Q51" s="40"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="47"/>
     </row>
     <row r="52" spans="1:17" ht="12" customHeight="1">
       <c r="A52" s="6">
         <v>4</v>
       </c>
       <c r="B52" s="7"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="24" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N52" s="62" t="s">
-        <v>87</v>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N52" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="40"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="47"/>
     </row>
     <row r="53" spans="1:17" ht="12" customHeight="1">
       <c r="A53" s="6">
         <v>5</v>
       </c>
       <c r="B53" s="7"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="24" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N53" s="62" t="s">
-        <v>87</v>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N53" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="15"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="14"/>
     </row>
     <row r="54" spans="1:17" ht="12" customHeight="1">
       <c r="A54" s="6">
         <v>6</v>
       </c>
       <c r="B54" s="7"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="24" t="s">
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N54" s="62" t="s">
-        <v>87</v>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N54" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P54" s="39"/>
-      <c r="Q54" s="40"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="47"/>
     </row>
     <row r="55" spans="1:17" ht="12" customHeight="1">
       <c r="A55" s="6">
         <v>7</v>
       </c>
       <c r="B55" s="7"/>
-      <c r="C55" s="30" t="s">
+      <c r="C55" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="24" t="s">
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="50"/>
+      <c r="H55" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N55" s="62" t="s">
-        <v>87</v>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N55" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P55" s="39"/>
-      <c r="Q55" s="40"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="47"/>
     </row>
     <row r="56" spans="1:17" ht="12" customHeight="1">
       <c r="A56" s="6">
         <v>8</v>
       </c>
       <c r="B56" s="7"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="24" t="s">
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N56" s="62" t="s">
-        <v>87</v>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N56" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P56" s="39"/>
-      <c r="Q56" s="40"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="47"/>
     </row>
     <row r="57" spans="1:17" ht="12" customHeight="1">
       <c r="A57" s="6">
         <v>9</v>
       </c>
       <c r="B57" s="7"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="24" t="s">
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N57" s="62" t="s">
-        <v>87</v>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N57" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P57" s="39"/>
-      <c r="Q57" s="40"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="47"/>
     </row>
     <row r="58" spans="1:17" ht="12" customHeight="1">
       <c r="A58" s="6">
         <v>10</v>
       </c>
       <c r="B58" s="7"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="24" t="s">
+      <c r="C58" s="51"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N58" s="62" t="s">
-        <v>87</v>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N58" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="40"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="47"/>
     </row>
     <row r="59" spans="1:17" ht="12" customHeight="1">
       <c r="A59" s="6">
         <v>11</v>
       </c>
       <c r="B59" s="7"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="24" t="s">
+      <c r="C59" s="51"/>
+      <c r="D59" s="52"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N59" s="62" t="s">
-        <v>87</v>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N59" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="15"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="14"/>
     </row>
     <row r="60" spans="1:17" ht="12" customHeight="1">
       <c r="A60" s="6">
         <v>12</v>
       </c>
       <c r="B60" s="7"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="24" t="s">
+      <c r="C60" s="54"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N60" s="62" t="s">
-        <v>87</v>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N60" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="15"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="14"/>
     </row>
     <row r="61" spans="1:17" ht="12" customHeight="1">
       <c r="A61" s="6">
         <v>13</v>
       </c>
       <c r="B61" s="7"/>
-      <c r="C61" s="30" t="s">
+      <c r="C61" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="24" t="s">
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N61" s="62" t="s">
-        <v>87</v>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N61" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="15"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="14"/>
     </row>
     <row r="62" spans="1:17" ht="12" customHeight="1">
       <c r="A62" s="6">
         <v>14</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="24" t="s">
+      <c r="C62" s="51"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N62" s="62" t="s">
-        <v>87</v>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N62" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="15"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="14"/>
     </row>
     <row r="63" spans="1:17" ht="12" customHeight="1">
       <c r="A63" s="6">
         <v>15</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="24" t="s">
+      <c r="C63" s="51"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N63" s="62" t="s">
-        <v>87</v>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N63" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="15"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="14"/>
     </row>
     <row r="64" spans="1:17" ht="12" customHeight="1">
       <c r="A64" s="6">
         <v>16</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="24" t="s">
+      <c r="C64" s="51"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N64" s="62" t="s">
-        <v>87</v>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N64" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="15"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="14"/>
     </row>
     <row r="65" spans="1:17" ht="12" customHeight="1">
       <c r="A65" s="6">
         <v>17</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="24" t="s">
+      <c r="C65" s="51"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N65" s="62" t="s">
-        <v>87</v>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N65" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="15"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="14"/>
     </row>
     <row r="66" spans="1:17" ht="12" customHeight="1">
       <c r="A66" s="6">
         <v>18</v>
       </c>
       <c r="B66" s="7"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="24" t="s">
+      <c r="C66" s="51"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N66" s="62" t="s">
-        <v>87</v>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N66" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="15"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="14"/>
     </row>
     <row r="67" spans="1:17" ht="12" customHeight="1">
       <c r="A67" s="6">
         <v>19</v>
       </c>
       <c r="B67" s="7"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="24" t="s">
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N67" s="62" t="s">
-        <v>87</v>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N67" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="15"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="14"/>
     </row>
     <row r="68" spans="1:17" ht="12" customHeight="1">
       <c r="A68" s="6">
         <v>20</v>
       </c>
       <c r="B68" s="7"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="24" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N68" s="62" t="s">
-        <v>87</v>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N68" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="15"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="14"/>
     </row>
     <row r="69" spans="1:17" ht="12" customHeight="1">
       <c r="A69" s="6">
         <v>21</v>
       </c>
       <c r="B69" s="7"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="24" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N69" s="62" t="s">
-        <v>87</v>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N69" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="15"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="14"/>
     </row>
     <row r="70" spans="1:17" ht="12" customHeight="1">
       <c r="A70" s="6">
         <v>22</v>
       </c>
       <c r="B70" s="7"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="24" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N70" s="62" t="s">
-        <v>87</v>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="15"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="14"/>
     </row>
     <row r="71" spans="1:17" ht="12" customHeight="1">
       <c r="A71" s="6">
         <v>23</v>
       </c>
       <c r="B71" s="7"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="24" t="s">
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
+      <c r="H71" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N71" s="62" t="s">
-        <v>87</v>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N71" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="15"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="14"/>
     </row>
     <row r="72" spans="1:17" ht="12" customHeight="1">
       <c r="A72" s="6">
         <v>24</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="24" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N72" s="62" t="s">
-        <v>87</v>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N72" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="15"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="14"/>
     </row>
     <row r="73" spans="1:17" ht="12" customHeight="1">
       <c r="A73" s="6">
         <v>25</v>
       </c>
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="23" t="s">
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N73" s="62" t="s">
-        <v>87</v>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N73" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
     </row>
     <row r="74" spans="1:17" ht="12" customHeight="1">
       <c r="A74" s="6">
         <v>23</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="24" t="s">
+      <c r="B74" s="58"/>
+      <c r="C74" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="23" t="s">
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N74" s="62" t="s">
-        <v>87</v>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N74" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="23"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
     </row>
     <row r="75" spans="1:17" ht="12" customHeight="1">
       <c r="A75" s="6">
         <v>24</v>
       </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="24" t="s">
+      <c r="B75" s="58"/>
+      <c r="C75" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="26"/>
-      <c r="H75" s="23" t="s">
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N75" s="62" t="s">
-        <v>87</v>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N75" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P75" s="23"/>
-      <c r="Q75" s="23"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
     </row>
     <row r="76" spans="1:17" ht="12" customHeight="1">
       <c r="A76" s="6">
         <v>25</v>
       </c>
-      <c r="B76" s="21"/>
-      <c r="C76" s="24" t="s">
+      <c r="B76" s="58"/>
+      <c r="C76" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="23" t="s">
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N76" s="62" t="s">
-        <v>87</v>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="15"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="14"/>
     </row>
     <row r="77" spans="1:17" ht="12" customHeight="1">
       <c r="A77" s="6">
         <v>26</v>
       </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="24" t="s">
+      <c r="B77" s="58"/>
+      <c r="C77" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="24" t="s">
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N77" s="62" t="s">
-        <v>87</v>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N77" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="P77" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q77" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="14"/>
     </row>
     <row r="78" spans="1:17" ht="12" customHeight="1">
       <c r="A78" s="6">
         <v>27</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="24" t="s">
+      <c r="B78" s="58"/>
+      <c r="C78" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N78" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q78" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N78" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P78" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q78" s="15" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="12" customHeight="1">
       <c r="A79" s="6">
         <v>28</v>
       </c>
-      <c r="B79" s="21"/>
-      <c r="C79" s="24" t="s">
+      <c r="B79" s="58"/>
+      <c r="C79" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="23" t="s">
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="45"/>
+      <c r="H79" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N79" s="62" t="s">
-        <v>87</v>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N79" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="15"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="14"/>
     </row>
     <row r="80" spans="1:17" ht="12" customHeight="1">
       <c r="A80" s="6">
         <v>29</v>
       </c>
-      <c r="B80" s="21"/>
-      <c r="C80" s="24" t="s">
+      <c r="B80" s="58"/>
+      <c r="C80" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="24" t="s">
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="45"/>
+      <c r="H80" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N80" s="62" t="s">
-        <v>87</v>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N80" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P80" s="14"/>
-      <c r="Q80" s="15"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="14"/>
     </row>
     <row r="81" spans="1:17" ht="12" customHeight="1">
       <c r="A81" s="6">
         <v>30</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="24" t="s">
+      <c r="B81" s="58"/>
+      <c r="C81" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="23" t="s">
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N81" s="62" t="s">
-        <v>87</v>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N81" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="15"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="14"/>
     </row>
     <row r="82" spans="1:17" ht="12" customHeight="1">
       <c r="A82" s="6">
         <v>31</v>
       </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="24" t="s">
+      <c r="B82" s="58"/>
+      <c r="C82" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="23" t="s">
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N82" s="62" t="s">
-        <v>87</v>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N82" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="15"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="14"/>
     </row>
     <row r="83" spans="1:17" ht="12" customHeight="1">
       <c r="A83" s="6">
         <v>32</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="24" t="s">
+      <c r="B83" s="58"/>
+      <c r="C83" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="27" t="s">
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N83" s="62" t="s">
-        <v>87</v>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="15"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="14"/>
     </row>
     <row r="84" spans="1:17" ht="12" customHeight="1">
       <c r="A84" s="6">
         <v>33</v>
       </c>
-      <c r="B84" s="21"/>
-      <c r="C84" s="24" t="s">
+      <c r="B84" s="58"/>
+      <c r="C84" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="23" t="s">
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N84" s="62" t="s">
-        <v>87</v>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N84" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="15"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="14"/>
     </row>
     <row r="85" spans="1:17" ht="12" customHeight="1">
       <c r="A85" s="6">
         <v>34</v>
       </c>
-      <c r="B85" s="21"/>
-      <c r="C85" s="24" t="s">
+      <c r="B85" s="58"/>
+      <c r="C85" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="23" t="s">
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N85" s="62" t="s">
-        <v>87</v>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N85" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="15"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="14"/>
     </row>
     <row r="86" spans="1:17" ht="12" customHeight="1">
       <c r="A86" s="6">
         <v>35</v>
       </c>
-      <c r="B86" s="21"/>
-      <c r="C86" s="24" t="s">
+      <c r="B86" s="58"/>
+      <c r="C86" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="23" t="s">
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N86" s="62" t="s">
-        <v>87</v>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N86" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="15"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="14"/>
     </row>
     <row r="87" spans="1:17" ht="12" customHeight="1">
       <c r="A87" s="6">
         <v>36</v>
       </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="24" t="s">
+      <c r="B87" s="59"/>
+      <c r="C87" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="23" t="s">
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="64">
-        <v>45512</v>
-      </c>
-      <c r="N87" s="62" t="s">
-        <v>87</v>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="20">
+        <v>45512</v>
+      </c>
+      <c r="N87" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="15"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="14"/>
     </row>
     <row r="88" spans="1:17" ht="11.25" customHeight="1">
-      <c r="O88" s="61"/>
+      <c r="O88" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:Q46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:Q47"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="B73:B87"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:L77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:L78"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:L76"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:L82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:L83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="B30:B44"/>
+    <mergeCell ref="C50:G54"/>
+    <mergeCell ref="C55:G60"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="C61:G72"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H71:L71"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="H65:L65"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="H67:L67"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="H69:L69"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:L80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:L81"/>
+    <mergeCell ref="H72:L72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:L73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:L74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:L75"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="H18:L18"/>
     <mergeCell ref="H50:L50"/>
     <mergeCell ref="P50:Q50"/>
     <mergeCell ref="H13:L13"/>
@@ -4352,113 +4410,37 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:Q46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:Q47"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="H80:L80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="H81:L81"/>
-    <mergeCell ref="H72:L72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="H73:L73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:L74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="H75:L75"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="B30:B44"/>
-    <mergeCell ref="C50:G54"/>
-    <mergeCell ref="C55:G60"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="C61:G72"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H71:L71"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="H65:L65"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="H67:L67"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="H69:L69"/>
-    <mergeCell ref="B73:B87"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="H77:L77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="H78:L78"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="H76:L76"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="H82:L82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H83:L83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="H84:L84"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="H79:L79"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
